--- a/formato_carga_empleados.xlsx
+++ b/formato_carga_empleados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INCOE\Documents\PROYECTOS IT-INCOE\PROYECTO INTRANET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INCOE\Documents\GitHub\INTRACOE_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD9CDB-D3B7-471A-93B4-7D15606C61F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE9548C-2665-4FC4-B39B-0FF601D53001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>armand</t>
   </si>
@@ -91,13 +91,40 @@
   </si>
   <si>
     <t>domingo E</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellidos</t>
+  </si>
+  <si>
+    <t>dui</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>salario mensual neto</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>telefono</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +142,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,9 +176,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -425,68 +466,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1">
-        <v>500</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>604447435</v>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -495,27 +537,27 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>604447436</v>
+        <v>604447435</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -524,27 +566,27 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>604447437</v>
+        <v>604447436</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>646</v>
+        <v>800</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -553,27 +595,27 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>604447438</v>
+        <v>604447437</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -582,17 +624,46 @@
         <v>3</v>
       </c>
       <c r="I5">
+        <v>604447438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>582</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>604447439</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1" xr:uid="{59AEAFDB-E93A-4D22-AED2-2F92F3834E82}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{1E34803C-CBFF-477D-914E-B769C76B7DDD}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{B5E887C8-077E-4A97-AB35-A3F61392B7B2}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{B3BBE7DF-C717-4FFF-8792-BFD45F668A33}"/>
-    <hyperlink ref="H5" r:id="rId5" xr:uid="{32233BF5-DA45-4D96-A1DE-567F1677A84D}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{59AEAFDB-E93A-4D22-AED2-2F92F3834E82}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{1E34803C-CBFF-477D-914E-B769C76B7DDD}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{B5E887C8-077E-4A97-AB35-A3F61392B7B2}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{B3BBE7DF-C717-4FFF-8792-BFD45F668A33}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{32233BF5-DA45-4D96-A1DE-567F1677A84D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
